--- a/data/trans_orig/IP19D-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP19D-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C06A340F-4783-4445-904D-3D80D265FD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D7582DD-8C05-4505-AF24-60B7420278B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{94F6B3B2-B6A3-4A4A-B8DE-2DFBBC26372A}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{B1A5938F-E23B-46BB-8F3F-0E75733F83CD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,12 +68,195 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>De la Seguridad Social/S.A.S. (Servicio Andaluz de Salud)</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>De una sociedad Médica (p.ej: Sanitas, Adeslas, Asisa)</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>Dentista privado/particular</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>De la Seguridad Social/S.A.S. (Servicio Andaluz de Salud)</t>
-  </si>
-  <si>
     <t>37,87%</t>
   </si>
   <si>
@@ -101,9 +284,6 @@
     <t>39,14%</t>
   </si>
   <si>
-    <t>De una sociedad Médica (p.ej: Sanitas, Adeslas, Asisa)</t>
-  </si>
-  <si>
     <t>4,85%</t>
   </si>
   <si>
@@ -131,9 +311,6 @@
     <t>6,43%</t>
   </si>
   <si>
-    <t>Dentista privado/particular</t>
-  </si>
-  <si>
     <t>57,28%</t>
   </si>
   <si>
@@ -161,15 +338,6 @@
     <t>66,69%</t>
   </si>
   <si>
-    <t>Otros</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
     <t>1,13%</t>
   </si>
   <si>
@@ -191,106 +359,97 @@
     <t>3,51%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -317,9 +476,6 @@
     <t>30,14%</t>
   </si>
   <si>
-    <t>24,45%</t>
-  </si>
-  <si>
     <t>35,69%</t>
   </si>
   <si>
@@ -368,9 +524,6 @@
     <t>60,07%</t>
   </si>
   <si>
-    <t>71,82%</t>
-  </si>
-  <si>
     <t>2,47%</t>
   </si>
   <si>
@@ -389,159 +542,6 @@
     <t>4,19%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
     <t>32,59%</t>
   </si>
   <si>
@@ -653,6 +653,171 @@
     <t>Menores en función de la organización para la que trabaja el dentista que le atendió en 2012 (Tasa respuesta: 48,98%)</t>
   </si>
   <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
     <t>47,31%</t>
   </si>
   <si>
@@ -743,94 +908,97 @@
     <t>4,69%</t>
   </si>
   <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
   </si>
   <si>
     <t>43,58%</t>
@@ -926,174 +1094,6 @@
     <t>3,27%</t>
   </si>
   <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
     <t>46,45%</t>
   </si>
   <si>
@@ -1190,6 +1190,159 @@
     <t>Menores en función de la organización para la que trabaja el dentista que le atendió en 2015 (Tasa respuesta: 48,21%)</t>
   </si>
   <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
     <t>40,76%</t>
   </si>
   <si>
@@ -1280,88 +1433,88 @@
     <t>1,94%</t>
   </si>
   <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
   </si>
   <si>
     <t>36,57%</t>
@@ -1457,159 +1610,6 @@
     <t>2,83%</t>
   </si>
   <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
     <t>39,42%</t>
   </si>
   <si>
@@ -1703,9 +1703,129 @@
     <t>Menores en función de la organización para la que trabaja el dentista que le atendió en 2023 (Tasa respuesta: 58,54%)</t>
   </si>
   <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
     <t>20,14%</t>
   </si>
   <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
     <t>15,0%</t>
   </si>
   <si>
@@ -1784,64 +1904,79 @@
     <t>0,13%</t>
   </si>
   <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
   </si>
   <si>
     <t>15,71%</t>
@@ -1868,9 +2003,6 @@
     <t>9,89%</t>
   </si>
   <si>
-    <t>18,22%</t>
-  </si>
-  <si>
     <t>3,64%</t>
   </si>
   <si>
@@ -1914,138 +2046,6 @@
   </si>
   <si>
     <t>4,99%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
   </si>
   <si>
     <t>16,15%</t>
@@ -2518,7 +2518,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76BBF8FA-ABF1-4B13-A025-ACCA85555C45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90CB22B-41FD-499C-974E-DF8D3DB2220F}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2636,10 +2636,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>42036</v>
+        <v>7390</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2651,10 +2651,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>31423</v>
+        <v>5317</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2666,10 +2666,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="N4" s="7">
-        <v>73458</v>
+        <v>12707</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2687,10 +2687,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>5385</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2702,91 +2702,91 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>2981</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>13</v>
-      </c>
-      <c r="N5" s="7">
-        <v>8366</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7">
+        <v>6339</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="7">
+        <v>15</v>
+      </c>
+      <c r="I6" s="7">
+        <v>12242</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="7">
-        <v>96</v>
-      </c>
-      <c r="D6" s="7">
-        <v>63574</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>23</v>
+      </c>
+      <c r="N6" s="7">
+        <v>18581</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="7">
-        <v>113</v>
-      </c>
-      <c r="I6" s="7">
-        <v>71896</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" s="7">
-        <v>209</v>
-      </c>
-      <c r="N6" s="7">
-        <v>135470</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -2795,43 +2795,43 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="H7" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>3224</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="M7" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>3224</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2840,54 +2840,54 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="D8" s="7">
-        <v>110995</v>
+        <v>13729</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H8" s="7">
-        <v>173</v>
+        <v>22</v>
       </c>
       <c r="I8" s="7">
-        <v>109524</v>
+        <v>17559</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="M8" s="7">
-        <v>342</v>
+        <v>40</v>
       </c>
       <c r="N8" s="7">
-        <v>220519</v>
+        <v>31288</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -2899,13 +2899,13 @@
         <v>18274</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H9" s="7">
         <v>30</v>
@@ -2914,13 +2914,13 @@
         <v>20033</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="M9" s="7">
         <v>58</v>
@@ -2929,13 +2929,13 @@
         <v>38307</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2950,13 +2950,13 @@
         <v>635</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2965,13 +2965,13 @@
         <v>1365</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -2980,19 +2980,19 @@
         <v>2000</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C11" s="7">
         <v>70</v>
@@ -3001,13 +3001,13 @@
         <v>46312</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="H11" s="7">
         <v>53</v>
@@ -3016,13 +3016,13 @@
         <v>35378</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="M11" s="7">
         <v>123</v>
@@ -3031,19 +3031,19 @@
         <v>81690</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C12" s="7">
         <v>3</v>
@@ -3052,13 +3052,13 @@
         <v>1906</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3067,13 +3067,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -3082,13 +3082,13 @@
         <v>1906</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,13 +3103,13 @@
         <v>67126</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H13" s="7">
         <v>85</v>
@@ -3118,13 +3118,13 @@
         <v>56776</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="M13" s="7">
         <v>187</v>
@@ -3133,66 +3133,66 @@
         <v>123902</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="D14" s="7">
-        <v>23922</v>
+        <v>42036</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I14" s="7">
-        <v>30678</v>
+        <v>31423</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="N14" s="7">
-        <v>54601</v>
+        <v>73458</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3201,151 +3201,151 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D15" s="7">
-        <v>2112</v>
+        <v>5385</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H15" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I15" s="7">
-        <v>2225</v>
+        <v>2981</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="M15" s="7">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N15" s="7">
-        <v>4337</v>
+        <v>8366</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C16" s="7">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D16" s="7">
-        <v>59921</v>
+        <v>63574</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="H16" s="7">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="I16" s="7">
-        <v>59411</v>
+        <v>71896</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="M16" s="7">
-        <v>162</v>
+        <v>209</v>
       </c>
       <c r="N16" s="7">
-        <v>119332</v>
+        <v>135470</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>2180</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I17" s="7">
-        <v>733</v>
+        <v>3224</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N17" s="7">
-        <v>2914</v>
+        <v>3224</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,102 +3354,102 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="D18" s="7">
-        <v>88136</v>
+        <v>110995</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H18" s="7">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="I18" s="7">
-        <v>93048</v>
+        <v>109524</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="M18" s="7">
-        <v>248</v>
+        <v>342</v>
       </c>
       <c r="N18" s="7">
-        <v>181184</v>
+        <v>220519</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D19" s="7">
-        <v>7390</v>
+        <v>24759</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="I19" s="7">
-        <v>5317</v>
+        <v>22690</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="N19" s="7">
-        <v>12707</v>
+        <v>47449</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,121 +3458,121 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>1368</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>2293</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>3661</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C21" s="7">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="D21" s="7">
-        <v>6339</v>
+        <v>50303</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H21" s="7">
+        <v>73</v>
+      </c>
+      <c r="I21" s="7">
+        <v>43593</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="M21" s="7">
+        <v>152</v>
+      </c>
+      <c r="N21" s="7">
+        <v>93896</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="H21" s="7">
-        <v>15</v>
-      </c>
-      <c r="I21" s="7">
-        <v>12242</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="M21" s="7">
-        <v>23</v>
-      </c>
-      <c r="N21" s="7">
-        <v>18581</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>719</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3581,28 +3581,28 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>719</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3611,78 +3611,78 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="D23" s="7">
-        <v>13729</v>
+        <v>77149</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H23" s="7">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="I23" s="7">
-        <v>17559</v>
+        <v>68576</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="M23" s="7">
-        <v>40</v>
+        <v>235</v>
       </c>
       <c r="N23" s="7">
-        <v>31288</v>
+        <v>145725</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D24" s="7">
-        <v>24759</v>
+        <v>23922</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>140</v>
       </c>
       <c r="H24" s="7">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I24" s="7">
-        <v>22690</v>
+        <v>30678</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>141</v>
@@ -3697,16 +3697,16 @@
         <v>76</v>
       </c>
       <c r="N24" s="7">
-        <v>47449</v>
+        <v>54601</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>144</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3715,25 +3715,25 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>1368</v>
+        <v>2112</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>147</v>
       </c>
       <c r="H25" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I25" s="7">
-        <v>2293</v>
+        <v>2225</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>148</v>
@@ -3748,58 +3748,58 @@
         <v>6</v>
       </c>
       <c r="N25" s="7">
-        <v>3661</v>
+        <v>4337</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D26" s="7">
-        <v>50303</v>
+        <v>59921</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>76</v>
+      </c>
+      <c r="I26" s="7">
+        <v>59411</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="H26" s="7">
-        <v>73</v>
-      </c>
-      <c r="I26" s="7">
-        <v>43593</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="L26" s="7" t="s">
-        <v>109</v>
-      </c>
       <c r="M26" s="7">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="N26" s="7">
-        <v>93896</v>
+        <v>119332</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>159</v>
@@ -3808,55 +3808,55 @@
         <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C27" s="7">
+        <v>3</v>
+      </c>
+      <c r="D27" s="7">
+        <v>2180</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H27" s="7">
         <v>1</v>
       </c>
-      <c r="D27" s="7">
-        <v>719</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27" s="7" t="s">
+      <c r="I27" s="7">
+        <v>733</v>
+      </c>
+      <c r="J27" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7">
-        <v>0</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="K27" s="7" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>164</v>
       </c>
       <c r="M27" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N27" s="7">
-        <v>719</v>
+        <v>2914</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>166</v>
@@ -3868,49 +3868,49 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D28" s="7">
-        <v>77149</v>
+        <v>88136</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H28" s="7">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="I28" s="7">
-        <v>68576</v>
+        <v>93048</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="M28" s="7">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="N28" s="7">
-        <v>145725</v>
+        <v>181184</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,7 +4020,7 @@
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C31" s="7">
         <v>339</v>
@@ -4071,7 +4071,7 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C32" s="7">
         <v>7</v>
@@ -4131,13 +4131,13 @@
         <v>357136</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H33" s="7">
         <v>514</v>
@@ -4146,13 +4146,13 @@
         <v>345484</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="M33" s="7">
         <v>1052</v>
@@ -4161,13 +4161,13 @@
         <v>702619</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -4188,7 +4188,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E1B680-3638-4A2B-AB5B-DB3ADC8C742E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4563207F-BDE5-4BDA-A89B-5EB0F4BC7114}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4306,10 +4306,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>54512</v>
+        <v>5246</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>204</v>
@@ -4321,10 +4321,10 @@
         <v>206</v>
       </c>
       <c r="H4" s="7">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>47548</v>
+        <v>3669</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>207</v>
@@ -4336,10 +4336,10 @@
         <v>209</v>
       </c>
       <c r="M4" s="7">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>102060</v>
+        <v>8915</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>210</v>
@@ -4357,151 +4357,151 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>3381</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1265</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="M5" s="7">
-        <v>7</v>
-      </c>
-      <c r="N5" s="7">
-        <v>4646</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="D6" s="7">
-        <v>53474</v>
+        <v>7794</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H6" s="7">
+        <v>10</v>
+      </c>
+      <c r="I6" s="7">
+        <v>8350</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="H6" s="7">
-        <v>92</v>
-      </c>
-      <c r="I6" s="7">
-        <v>60416</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>19</v>
+      </c>
+      <c r="N6" s="7">
+        <v>16145</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="M6" s="7">
-        <v>171</v>
-      </c>
-      <c r="N6" s="7">
-        <v>113889</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>3859</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>870</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="7">
+        <v>870</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="P7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="H7" s="7">
-        <v>4</v>
-      </c>
-      <c r="I7" s="7">
-        <v>2493</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="M7" s="7">
-        <v>10</v>
-      </c>
-      <c r="N7" s="7">
-        <v>6352</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4510,54 +4510,54 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>169</v>
+        <v>14</v>
       </c>
       <c r="D8" s="7">
-        <v>115226</v>
+        <v>13040</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H8" s="7">
-        <v>169</v>
+        <v>15</v>
       </c>
       <c r="I8" s="7">
-        <v>111722</v>
+        <v>12890</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="M8" s="7">
-        <v>338</v>
+        <v>29</v>
       </c>
       <c r="N8" s="7">
-        <v>226947</v>
+        <v>25931</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -4569,13 +4569,13 @@
         <v>25505</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H9" s="7">
         <v>47</v>
@@ -4584,13 +4584,13 @@
         <v>34373</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="M9" s="7">
         <v>83</v>
@@ -4599,13 +4599,13 @@
         <v>59878</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4623,10 +4623,10 @@
         <v>181</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -4635,13 +4635,13 @@
         <v>1384</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -4650,19 +4650,19 @@
         <v>3983</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C11" s="7">
         <v>47</v>
@@ -4671,13 +4671,13 @@
         <v>33507</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="H11" s="7">
         <v>37</v>
@@ -4686,13 +4686,13 @@
         <v>26590</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="M11" s="7">
         <v>84</v>
@@ -4701,19 +4701,19 @@
         <v>60096</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C12" s="7">
         <v>1</v>
@@ -4722,13 +4722,13 @@
         <v>630</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -4737,13 +4737,13 @@
         <v>910</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -4752,13 +4752,13 @@
         <v>1541</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4773,13 +4773,13 @@
         <v>62241</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H13" s="7">
         <v>87</v>
@@ -4788,13 +4788,13 @@
         <v>63257</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="M13" s="7">
         <v>175</v>
@@ -4803,66 +4803,66 @@
         <v>125498</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D14" s="7">
-        <v>41278</v>
+        <v>54512</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H14" s="7">
+        <v>71</v>
+      </c>
+      <c r="I14" s="7">
+        <v>47548</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>150</v>
+      </c>
+      <c r="N14" s="7">
+        <v>102060</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="H14" s="7">
-        <v>54</v>
-      </c>
-      <c r="I14" s="7">
-        <v>40823</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="M14" s="7">
-        <v>110</v>
-      </c>
-      <c r="N14" s="7">
-        <v>82101</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4871,151 +4871,151 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D15" s="7">
-        <v>5949</v>
+        <v>3381</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H15" s="7">
+        <v>2</v>
+      </c>
+      <c r="I15" s="7">
+        <v>1265</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="M15" s="7">
+        <v>7</v>
+      </c>
+      <c r="N15" s="7">
+        <v>4646</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="H15" s="7">
-        <v>4</v>
-      </c>
-      <c r="I15" s="7">
-        <v>3001</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="M15" s="7">
-        <v>12</v>
-      </c>
-      <c r="N15" s="7">
-        <v>8949</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C16" s="7">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="D16" s="7">
-        <v>46374</v>
+        <v>53474</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H16" s="7">
+        <v>92</v>
+      </c>
+      <c r="I16" s="7">
+        <v>60416</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="M16" s="7">
+        <v>171</v>
+      </c>
+      <c r="N16" s="7">
+        <v>113889</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="H16" s="7">
-        <v>60</v>
-      </c>
-      <c r="I16" s="7">
-        <v>47685</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="M16" s="7">
-        <v>124</v>
-      </c>
-      <c r="N16" s="7">
-        <v>94060</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>1128</v>
+        <v>3859</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>798</v>
+        <v>2493</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>291</v>
+        <v>67</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N17" s="7">
-        <v>1926</v>
+        <v>6352</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>41</v>
+        <v>287</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5024,102 +5024,102 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="D18" s="7">
-        <v>94729</v>
+        <v>115226</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H18" s="7">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c r="I18" s="7">
-        <v>92307</v>
+        <v>111722</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="M18" s="7">
-        <v>248</v>
+        <v>338</v>
       </c>
       <c r="N18" s="7">
-        <v>187036</v>
+        <v>226947</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="D19" s="7">
-        <v>5246</v>
+        <v>42984</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H19" s="7">
+        <v>62</v>
+      </c>
+      <c r="I19" s="7">
+        <v>40686</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="M19" s="7">
+        <v>125</v>
+      </c>
+      <c r="N19" s="7">
+        <v>83670</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="H19" s="7">
-        <v>4</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3669</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="M19" s="7">
-        <v>9</v>
-      </c>
-      <c r="N19" s="7">
-        <v>8915</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>302</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>303</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5128,148 +5128,148 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>4131</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>41</v>
+        <v>296</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>42</v>
+        <v>297</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>1988</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>41</v>
+        <v>299</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>42</v>
+        <v>151</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>6119</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>41</v>
+        <v>301</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>42</v>
+        <v>302</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C21" s="7">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D21" s="7">
-        <v>7794</v>
+        <v>30958</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H21" s="7">
+        <v>49</v>
+      </c>
+      <c r="I21" s="7">
+        <v>31005</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="H21" s="7">
-        <v>10</v>
-      </c>
-      <c r="I21" s="7">
-        <v>8350</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>100</v>
+      </c>
+      <c r="N21" s="7">
+        <v>61963</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="M21" s="7">
-        <v>19</v>
-      </c>
-      <c r="N21" s="7">
-        <v>16145</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>1680</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>41</v>
+        <v>313</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>42</v>
+        <v>314</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>870</v>
+        <v>656</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>4</v>
+      </c>
+      <c r="N22" s="7">
+        <v>2336</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="M22" s="7">
-        <v>1</v>
-      </c>
-      <c r="N22" s="7">
-        <v>870</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>319</v>
@@ -5281,63 +5281,63 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="D23" s="7">
-        <v>13040</v>
+        <v>79753</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H23" s="7">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="I23" s="7">
-        <v>12890</v>
+        <v>74335</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="M23" s="7">
-        <v>29</v>
+        <v>238</v>
       </c>
       <c r="N23" s="7">
-        <v>25931</v>
+        <v>154088</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D24" s="7">
-        <v>42984</v>
+        <v>41278</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>320</v>
@@ -5349,34 +5349,34 @@
         <v>322</v>
       </c>
       <c r="H24" s="7">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="I24" s="7">
-        <v>40686</v>
+        <v>40823</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>323</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>129</v>
+        <v>324</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M24" s="7">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="N24" s="7">
-        <v>83670</v>
+        <v>82101</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>192</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5385,118 +5385,118 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D25" s="7">
-        <v>4131</v>
+        <v>5949</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>328</v>
+        <v>120</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H25" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I25" s="7">
-        <v>1988</v>
+        <v>3001</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>99</v>
+        <v>332</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M25" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N25" s="7">
-        <v>6119</v>
+        <v>8949</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>333</v>
+        <v>136</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D26" s="7">
-        <v>30958</v>
+        <v>46374</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H26" s="7">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I26" s="7">
-        <v>31005</v>
+        <v>47685</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M26" s="7">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="N26" s="7">
-        <v>61963</v>
+        <v>94060</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C27" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D27" s="7">
-        <v>1680</v>
+        <v>1128</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>345</v>
+        <v>21</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>346</v>
@@ -5505,28 +5505,28 @@
         <v>1</v>
       </c>
       <c r="I27" s="7">
-        <v>656</v>
+        <v>798</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>78</v>
+        <v>347</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M27" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N27" s="7">
-        <v>2336</v>
+        <v>1926</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>349</v>
+        <v>21</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>350</v>
@@ -5538,49 +5538,49 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D28" s="7">
-        <v>79753</v>
+        <v>94729</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H28" s="7">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="I28" s="7">
-        <v>74335</v>
+        <v>92307</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="M28" s="7">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="N28" s="7">
-        <v>154088</v>
+        <v>187036</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5651,7 +5651,7 @@
         <v>360</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>361</v>
@@ -5666,7 +5666,7 @@
         <v>362</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>363</v>
@@ -5690,7 +5690,7 @@
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C31" s="7">
         <v>250</v>
@@ -5741,7 +5741,7 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C32" s="7">
         <v>11</v>
@@ -5753,7 +5753,7 @@
         <v>376</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>377</v>
@@ -5783,10 +5783,10 @@
         <v>381</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5801,13 +5801,13 @@
         <v>364989</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H33" s="7">
         <v>505</v>
@@ -5816,13 +5816,13 @@
         <v>354511</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="M33" s="7">
         <v>1028</v>
@@ -5831,13 +5831,13 @@
         <v>719500</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -5858,7 +5858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739996A3-49BC-4305-BB1C-24E67A2E0BE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144076D6-7880-4DCC-B326-FE0B096A84DB}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5976,10 +5976,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>43091</v>
+        <v>7884</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>383</v>
@@ -5991,10 +5991,10 @@
         <v>385</v>
       </c>
       <c r="H4" s="7">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>40204</v>
+        <v>5549</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>386</v>
@@ -6006,10 +6006,10 @@
         <v>388</v>
       </c>
       <c r="M4" s="7">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="N4" s="7">
-        <v>83295</v>
+        <v>13433</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>389</v>
@@ -6027,151 +6027,151 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>1288</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1036</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="H5" s="7">
-        <v>6</v>
-      </c>
-      <c r="I5" s="7">
-        <v>3570</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1036</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="L5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="M5" s="7">
-        <v>8</v>
-      </c>
-      <c r="N5" s="7">
-        <v>4858</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="D6" s="7">
-        <v>56890</v>
+        <v>7593</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="H6" s="7">
+        <v>9</v>
+      </c>
+      <c r="I6" s="7">
+        <v>8417</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="H6" s="7">
-        <v>89</v>
-      </c>
-      <c r="I6" s="7">
-        <v>58129</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>18</v>
+      </c>
+      <c r="N6" s="7">
+        <v>16010</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="M6" s="7">
-        <v>173</v>
-      </c>
-      <c r="N6" s="7">
-        <v>115019</v>
-      </c>
-      <c r="O6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>4450</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>348</v>
+        <v>22</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>407</v>
+        <v>23</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>3631</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>408</v>
+        <v>21</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>409</v>
+        <v>22</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="M7" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>8081</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>411</v>
+        <v>21</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>412</v>
+        <v>22</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>306</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6180,54 +6180,54 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="D8" s="7">
-        <v>105720</v>
+        <v>15477</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H8" s="7">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="I8" s="7">
-        <v>105533</v>
+        <v>15002</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="M8" s="7">
-        <v>316</v>
+        <v>34</v>
       </c>
       <c r="N8" s="7">
-        <v>211253</v>
+        <v>30479</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -6239,13 +6239,13 @@
         <v>27136</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>210</v>
+        <v>265</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="H9" s="7">
         <v>33</v>
@@ -6254,13 +6254,13 @@
         <v>22626</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="M9" s="7">
         <v>68</v>
@@ -6269,13 +6269,13 @@
         <v>49762</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6290,13 +6290,13 @@
         <v>725</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -6305,13 +6305,13 @@
         <v>1299</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -6320,19 +6320,19 @@
         <v>2024</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C11" s="7">
         <v>41</v>
@@ -6341,13 +6341,13 @@
         <v>30941</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="H11" s="7">
         <v>42</v>
@@ -6356,13 +6356,13 @@
         <v>28692</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="M11" s="7">
         <v>83</v>
@@ -6371,19 +6371,19 @@
         <v>59634</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C12" s="7">
         <v>2</v>
@@ -6392,13 +6392,13 @@
         <v>1543</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -6407,13 +6407,13 @@
         <v>605</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>214</v>
+        <v>269</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -6422,13 +6422,13 @@
         <v>2148</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6443,13 +6443,13 @@
         <v>60345</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H13" s="7">
         <v>78</v>
@@ -6458,13 +6458,13 @@
         <v>53223</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="M13" s="7">
         <v>157</v>
@@ -6473,66 +6473,66 @@
         <v>113568</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D14" s="7">
-        <v>38989</v>
+        <v>43091</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="H14" s="7">
+        <v>62</v>
+      </c>
+      <c r="I14" s="7">
+        <v>40204</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="M14" s="7">
+        <v>123</v>
+      </c>
+      <c r="N14" s="7">
+        <v>83295</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="H14" s="7">
-        <v>42</v>
-      </c>
-      <c r="I14" s="7">
-        <v>31666</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="M14" s="7">
-        <v>95</v>
-      </c>
-      <c r="N14" s="7">
-        <v>70655</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6541,151 +6541,151 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" s="7">
-        <v>2741</v>
+        <v>1288</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>179</v>
+        <v>443</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>450</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="H15" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I15" s="7">
-        <v>7320</v>
+        <v>3570</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="M15" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N15" s="7">
-        <v>10060</v>
+        <v>4858</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>455</v>
+        <v>269</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C16" s="7">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D16" s="7">
-        <v>64288</v>
+        <v>56890</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="H16" s="7">
+        <v>89</v>
+      </c>
+      <c r="I16" s="7">
+        <v>58129</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="M16" s="7">
+        <v>173</v>
+      </c>
+      <c r="N16" s="7">
+        <v>115019</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="H16" s="7">
-        <v>91</v>
-      </c>
-      <c r="I16" s="7">
-        <v>69341</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="M16" s="7">
-        <v>178</v>
-      </c>
-      <c r="N16" s="7">
-        <v>133629</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>593</v>
+        <v>4450</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>229</v>
+        <v>164</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>41</v>
+        <v>317</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I17" s="7">
-        <v>2098</v>
+        <v>3631</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="M17" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N17" s="7">
-        <v>2692</v>
+        <v>8081</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>471</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6694,102 +6694,102 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="D18" s="7">
-        <v>106611</v>
+        <v>105720</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H18" s="7">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="I18" s="7">
-        <v>110425</v>
+        <v>105533</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="M18" s="7">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="N18" s="7">
-        <v>217036</v>
+        <v>211253</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D19" s="7">
-        <v>7884</v>
+        <v>26137</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="H19" s="7">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="I19" s="7">
-        <v>5549</v>
+        <v>25434</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>418</v>
+        <v>467</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="M19" s="7">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="N19" s="7">
-        <v>13433</v>
+        <v>51572</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>479</v>
+        <v>434</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6798,151 +6798,151 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>2308</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>41</v>
+        <v>472</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>42</v>
+        <v>473</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>126</v>
+        <v>474</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I20" s="7">
-        <v>1036</v>
+        <v>2552</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>480</v>
+        <v>394</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="M20" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N20" s="7">
-        <v>1036</v>
+        <v>4860</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>41</v>
+        <v>257</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C21" s="7">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D21" s="7">
-        <v>7593</v>
+        <v>46096</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="H21" s="7">
+        <v>71</v>
+      </c>
+      <c r="I21" s="7">
+        <v>45658</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="M21" s="7">
+        <v>137</v>
+      </c>
+      <c r="N21" s="7">
+        <v>91754</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="H21" s="7">
-        <v>9</v>
-      </c>
-      <c r="I21" s="7">
-        <v>8417</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="M21" s="7">
-        <v>18</v>
-      </c>
-      <c r="N21" s="7">
-        <v>16010</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>653</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>487</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>1373</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>41</v>
+        <v>488</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>2026</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>41</v>
+        <v>194</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>42</v>
+        <v>490</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6951,102 +6951,102 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="D23" s="7">
-        <v>15477</v>
+        <v>75194</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H23" s="7">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="I23" s="7">
-        <v>15002</v>
+        <v>75017</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="M23" s="7">
-        <v>34</v>
+        <v>227</v>
       </c>
       <c r="N23" s="7">
-        <v>30479</v>
+        <v>150211</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D24" s="7">
-        <v>26137</v>
+        <v>38989</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="H24" s="7">
+        <v>42</v>
+      </c>
+      <c r="I24" s="7">
+        <v>31666</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="H24" s="7">
-        <v>41</v>
-      </c>
-      <c r="I24" s="7">
-        <v>25434</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>95</v>
+      </c>
+      <c r="N24" s="7">
+        <v>70655</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="M24" s="7">
-        <v>79</v>
-      </c>
-      <c r="N24" s="7">
-        <v>51572</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7058,142 +7058,142 @@
         <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>2308</v>
+        <v>2741</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="H25" s="7">
+        <v>10</v>
+      </c>
+      <c r="I25" s="7">
+        <v>7320</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="K25" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>14</v>
+      </c>
+      <c r="N25" s="7">
+        <v>10060</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="H25" s="7">
-        <v>4</v>
-      </c>
-      <c r="I25" s="7">
-        <v>2552</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="M25" s="7">
-        <v>8</v>
-      </c>
-      <c r="N25" s="7">
-        <v>4860</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="D26" s="7">
-        <v>46096</v>
+        <v>64288</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>91</v>
+      </c>
+      <c r="I26" s="7">
+        <v>69341</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="H26" s="7">
-        <v>71</v>
-      </c>
-      <c r="I26" s="7">
-        <v>45658</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>178</v>
+      </c>
+      <c r="N26" s="7">
+        <v>133629</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="M26" s="7">
-        <v>137</v>
-      </c>
-      <c r="N26" s="7">
-        <v>91754</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C27" s="7">
         <v>1</v>
       </c>
       <c r="D27" s="7">
-        <v>653</v>
+        <v>593</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>99</v>
+        <v>284</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="G27" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="H27" s="7">
+        <v>3</v>
+      </c>
+      <c r="I27" s="7">
+        <v>2098</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="H27" s="7">
-        <v>2</v>
-      </c>
-      <c r="I27" s="7">
-        <v>1373</v>
-      </c>
-      <c r="J27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="K27" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L27" s="7" t="s">
+      <c r="M27" s="7">
+        <v>4</v>
+      </c>
+      <c r="N27" s="7">
+        <v>2692</v>
+      </c>
+      <c r="O27" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="M27" s="7">
-        <v>3</v>
-      </c>
-      <c r="N27" s="7">
-        <v>2026</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>521</v>
@@ -7208,49 +7208,49 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="D28" s="7">
-        <v>75194</v>
+        <v>106611</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H28" s="7">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="I28" s="7">
-        <v>75017</v>
+        <v>110425</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="M28" s="7">
-        <v>227</v>
+        <v>291</v>
       </c>
       <c r="N28" s="7">
-        <v>150211</v>
+        <v>217036</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7285,7 +7285,7 @@
         <v>526</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>527</v>
@@ -7318,7 +7318,7 @@
         <v>7062</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>412</v>
+        <v>463</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>531</v>
@@ -7360,7 +7360,7 @@
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C31" s="7">
         <v>287</v>
@@ -7411,7 +7411,7 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C32" s="7">
         <v>10</v>
@@ -7450,7 +7450,7 @@
         <v>14947</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>551</v>
@@ -7471,13 +7471,13 @@
         <v>363347</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H33" s="7">
         <v>521</v>
@@ -7486,13 +7486,13 @@
         <v>359201</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="M33" s="7">
         <v>1025</v>
@@ -7501,13 +7501,13 @@
         <v>722548</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -7528,7 +7528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC95C137-9FB8-4424-8F5C-66F328B3FD79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1041741F-DE8C-4CB8-88F4-5DDCE7184929}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7646,49 +7646,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>33626</v>
+        <v>2220</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>554</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1006</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="H4" s="7">
-        <v>28</v>
-      </c>
-      <c r="I4" s="7">
-        <v>18608</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>6</v>
+      </c>
+      <c r="N4" s="7">
+        <v>3226</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="M4" s="7">
-        <v>69</v>
-      </c>
-      <c r="N4" s="7">
-        <v>52234</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7697,106 +7697,106 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>802</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>166</v>
+        <v>561</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>612</v>
+        <v>673</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>673</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="M5" s="7">
-        <v>2</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1414</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>565</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>169</v>
+        <v>5</v>
       </c>
       <c r="D6" s="7">
-        <v>132522</v>
+        <v>4285</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7">
+        <v>12</v>
+      </c>
+      <c r="I6" s="7">
+        <v>7839</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="H6" s="7">
-        <v>131</v>
-      </c>
-      <c r="I6" s="7">
-        <v>97157</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>17</v>
+      </c>
+      <c r="N6" s="7">
+        <v>12123</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="M6" s="7">
-        <v>300</v>
-      </c>
-      <c r="N6" s="7">
-        <v>229679</v>
-      </c>
-      <c r="O6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>574</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -7805,43 +7805,43 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>2123</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>577</v>
+        <v>21</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>470</v>
+        <v>22</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>578</v>
+        <v>214</v>
       </c>
       <c r="M7" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>2123</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>579</v>
+        <v>21</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>580</v>
+        <v>22</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>80</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7850,54 +7850,54 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>211</v>
+        <v>9</v>
       </c>
       <c r="D8" s="7">
-        <v>166950</v>
+        <v>6505</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H8" s="7">
-        <v>163</v>
+        <v>15</v>
       </c>
       <c r="I8" s="7">
-        <v>118500</v>
+        <v>9519</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="M8" s="7">
-        <v>374</v>
+        <v>24</v>
       </c>
       <c r="N8" s="7">
-        <v>285449</v>
+        <v>16023</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -7909,13 +7909,13 @@
         <v>13371</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="H9" s="7">
         <v>24</v>
@@ -7924,13 +7924,13 @@
         <v>15072</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="M9" s="7">
         <v>40</v>
@@ -7939,13 +7939,13 @@
         <v>28443</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7960,10 +7960,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>365</v>
@@ -7975,13 +7975,13 @@
         <v>544</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>99</v>
+        <v>151</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -7990,19 +7990,19 @@
         <v>544</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C11" s="7">
         <v>68</v>
@@ -8011,13 +8011,13 @@
         <v>58381</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="H11" s="7">
         <v>70</v>
@@ -8026,13 +8026,13 @@
         <v>46905</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="M11" s="7">
         <v>138</v>
@@ -8041,19 +8041,19 @@
         <v>105287</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -8062,10 +8062,10 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>365</v>
@@ -8077,10 +8077,10 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>376</v>
@@ -8092,13 +8092,13 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8113,13 +8113,13 @@
         <v>71752</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H13" s="7">
         <v>95</v>
@@ -8128,13 +8128,13 @@
         <v>62522</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="M13" s="7">
         <v>179</v>
@@ -8143,66 +8143,66 @@
         <v>134274</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D14" s="7">
-        <v>16843</v>
+        <v>33626</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="H14" s="7">
+        <v>28</v>
+      </c>
+      <c r="I14" s="7">
+        <v>18608</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="M14" s="7">
+        <v>69</v>
+      </c>
+      <c r="N14" s="7">
+        <v>52234</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>602</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="H14" s="7">
-        <v>18</v>
-      </c>
-      <c r="I14" s="7">
-        <v>12246</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>604</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>605</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="M14" s="7">
-        <v>40</v>
-      </c>
-      <c r="N14" s="7">
-        <v>29089</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>607</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8214,148 +8214,148 @@
         <v>1</v>
       </c>
       <c r="D15" s="7">
-        <v>821</v>
+        <v>802</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>379</v>
+        <v>69</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>610</v>
+        <v>136</v>
       </c>
       <c r="H15" s="7">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7">
+        <v>612</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="M15" s="7">
         <v>2</v>
       </c>
-      <c r="I15" s="7">
-        <v>1393</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>611</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="M15" s="7">
-        <v>3</v>
-      </c>
       <c r="N15" s="7">
-        <v>2214</v>
+        <v>1414</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>613</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C16" s="7">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="D16" s="7">
-        <v>88671</v>
+        <v>132522</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="H16" s="7">
+        <v>131</v>
+      </c>
+      <c r="I16" s="7">
+        <v>97157</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="M16" s="7">
+        <v>300</v>
+      </c>
+      <c r="N16" s="7">
+        <v>229679</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>615</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="H16" s="7">
-        <v>118</v>
-      </c>
-      <c r="I16" s="7">
-        <v>90399</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>618</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="M16" s="7">
-        <v>231</v>
-      </c>
-      <c r="N16" s="7">
-        <v>179071</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>621</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>623</v>
+        <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>159</v>
+        <v>2123</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>41</v>
+        <v>521</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>504</v>
+        <v>618</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N17" s="7">
-        <v>1059</v>
+        <v>2123</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>565</v>
+        <v>619</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>41</v>
+        <v>620</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>365</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8364,102 +8364,102 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>137</v>
+        <v>211</v>
       </c>
       <c r="D18" s="7">
-        <v>107235</v>
+        <v>166950</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H18" s="7">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="I18" s="7">
-        <v>104197</v>
+        <v>118500</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="M18" s="7">
-        <v>276</v>
+        <v>374</v>
       </c>
       <c r="N18" s="7">
-        <v>211433</v>
+        <v>285449</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D19" s="7">
-        <v>2220</v>
+        <v>24800</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="H19" s="7">
+        <v>36</v>
+      </c>
+      <c r="I19" s="7">
+        <v>27107</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>64</v>
+      </c>
+      <c r="N19" s="7">
+        <v>51906</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>627</v>
       </c>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1006</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>629</v>
-      </c>
-      <c r="M19" s="7">
-        <v>6</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3226</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>630</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8468,106 +8468,106 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>4552</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>41</v>
+        <v>630</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="H20" s="7">
+        <v>3</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1229</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>673</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>9</v>
+      </c>
+      <c r="N20" s="7">
+        <v>5782</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>634</v>
       </c>
-      <c r="M20" s="7">
-        <v>1</v>
-      </c>
-      <c r="N20" s="7">
-        <v>673</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>635</v>
-      </c>
       <c r="P20" s="7" t="s">
-        <v>41</v>
+        <v>520</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>609</v>
+        <v>414</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C21" s="7">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="D21" s="7">
-        <v>4285</v>
+        <v>82469</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>636</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>637</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="7">
+        <v>103</v>
+      </c>
+      <c r="I21" s="7">
+        <v>77632</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>638</v>
       </c>
-      <c r="H21" s="7">
-        <v>12</v>
-      </c>
-      <c r="I21" s="7">
-        <v>7839</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>639</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>640</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>197</v>
+      </c>
+      <c r="N21" s="7">
+        <v>160101</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="M21" s="7">
-        <v>17</v>
-      </c>
-      <c r="N21" s="7">
-        <v>12123</v>
-      </c>
-      <c r="O21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>642</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>643</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -8576,43 +8576,43 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7">
+        <v>159</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="K22" s="7" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>305</v>
+        <v>473</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>41</v>
+        <v>645</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>246</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8621,102 +8621,102 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="D23" s="7">
-        <v>6505</v>
+        <v>111821</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H23" s="7">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="I23" s="7">
-        <v>9519</v>
+        <v>106127</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="M23" s="7">
-        <v>24</v>
+        <v>271</v>
       </c>
       <c r="N23" s="7">
-        <v>16023</v>
+        <v>217948</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D24" s="7">
-        <v>24800</v>
+        <v>16843</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H24" s="7">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I24" s="7">
-        <v>27107</v>
+        <v>12246</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="M24" s="7">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="N24" s="7">
-        <v>51906</v>
+        <v>29089</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>653</v>
+        <v>565</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8725,91 +8725,91 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>4552</v>
+        <v>821</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>654</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>2</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1393</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>655</v>
       </c>
-      <c r="H25" s="7">
+      <c r="K25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="M25" s="7">
         <v>3</v>
       </c>
-      <c r="I25" s="7">
-        <v>1229</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="N25" s="7">
+        <v>2214</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>656</v>
       </c>
-      <c r="M25" s="7">
-        <v>9</v>
-      </c>
-      <c r="N25" s="7">
-        <v>5782</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>657</v>
       </c>
-      <c r="P25" s="7" t="s">
-        <v>469</v>
-      </c>
       <c r="Q25" s="7" t="s">
-        <v>421</v>
+        <v>658</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="D26" s="7">
-        <v>82469</v>
+        <v>88671</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H26" s="7">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="I26" s="7">
-        <v>77632</v>
+        <v>90399</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>662</v>
+        <v>613</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>663</v>
       </c>
       <c r="M26" s="7">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="N26" s="7">
-        <v>160101</v>
+        <v>179071</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>664</v>
@@ -8824,22 +8824,22 @@
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C27" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="7">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>41</v>
+        <v>667</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -8848,28 +8848,28 @@
         <v>159</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>504</v>
+        <v>473</v>
       </c>
       <c r="M27" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N27" s="7">
-        <v>159</v>
+        <v>1059</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>668</v>
+        <v>605</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>114</v>
+        <v>365</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8878,49 +8878,49 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D28" s="7">
-        <v>111821</v>
+        <v>107235</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H28" s="7">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I28" s="7">
-        <v>106127</v>
+        <v>104197</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="M28" s="7">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="N28" s="7">
-        <v>217948</v>
+        <v>211433</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8937,7 +8937,7 @@
         <v>90860</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>669</v>
@@ -9006,7 +9006,7 @@
         <v>679</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>565</v>
+        <v>605</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>680</v>
@@ -9018,10 +9018,10 @@
         <v>10627</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>376</v>
@@ -9030,7 +9030,7 @@
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C31" s="7">
         <v>449</v>
@@ -9081,7 +9081,7 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C32" s="7">
         <v>1</v>
@@ -9093,10 +9093,10 @@
         <v>690</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>293</v>
+        <v>349</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
@@ -9126,7 +9126,7 @@
         <v>695</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>291</v>
+        <v>347</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9141,13 +9141,13 @@
         <v>464263</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H33" s="7">
         <v>555</v>
@@ -9156,13 +9156,13 @@
         <v>400865</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="M33" s="7">
         <v>1124</v>
@@ -9171,13 +9171,13 @@
         <v>865128</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP19D-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP19D-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AB42F55-5DFA-40D1-9DCC-07C2E33BF35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E30478B-301E-4EDA-8149-9C3DAC624295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C236CB3D-92E3-4497-99D9-5E804EACA285}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E0297AE5-E023-47BB-BB60-E45F20062AAA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="706">
   <si>
     <t>Menores en función de la organización para la que trabaja el dentista que le atendió en 2007 (Tasa respuesta: 50,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Otros</t>
@@ -95,28 +95,28 @@
     <t>46,17%</t>
   </si>
   <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
   </si>
   <si>
     <t>69,72%</t>
   </si>
   <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
   </si>
   <si>
     <t>59,39%</t>
   </si>
   <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
   </si>
   <si>
     <t>De una sociedad Médica (p.ej: Sanitas, Adeslas, Asisa)</t>
@@ -128,2011 +128,2035 @@
     <t>53,83%</t>
   </si>
   <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores en función de la organización para la que trabaja el dentista que le atendió en 2012 (Tasa respuesta: 48,98%)</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>Menores en función de la organización para la que trabaja el dentista que le atendió en 2016 (Tasa respuesta: 48,21%)</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
     <t>27,73%</t>
   </si>
   <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>Menores en función de la organización para la que trabaja el dentista que le atendió en 2023 (Tasa respuesta: 58,54%)</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
   </si>
   <si>
     <t>5,4%</t>
   </si>
   <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
   </si>
   <si>
     <t>4,63%</t>
   </si>
   <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores en función de la organización para la que trabaja el dentista que le atendió en 2012 (Tasa respuesta: 48,98%)</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
   </si>
   <si>
     <t>1,11%</t>
   </si>
   <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>Menores en función de la organización para la que trabaja el dentista que le atendió en 2015 (Tasa respuesta: 48,21%)</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>Menores en función de la organización para la que trabaja el dentista que le atendió en 2023 (Tasa respuesta: 58,54%)</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
+    <t>2,21%</t>
   </si>
   <si>
     <t>19,57%</t>
   </si>
   <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
   </si>
   <si>
     <t>18,47%</t>
   </si>
   <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
   </si>
   <si>
     <t>19,06%</t>
   </si>
   <si>
-    <t>21,68%</t>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
   </si>
 </sst>
 </file>
@@ -2544,7 +2568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054DF4F5-D201-4E58-86DA-C12C6D456FF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E014F4D1-AE45-413B-AD53-625FBBE1CE74}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3559,10 +3583,10 @@
         <v>123</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -3571,13 +3595,13 @@
         <v>3661</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,13 +3616,13 @@
         <v>24759</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H22" s="7">
         <v>37</v>
@@ -3607,13 +3631,13 @@
         <v>22690</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M22" s="7">
         <v>76</v>
@@ -3622,13 +3646,13 @@
         <v>47449</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3684,7 +3708,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3696,13 +3720,13 @@
         <v>2180</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -3711,7 +3735,7 @@
         <v>733</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
@@ -3801,7 +3825,7 @@
         <v>57</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>154</v>
@@ -3956,10 +3980,10 @@
         <v>169</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -3968,13 +3992,13 @@
         <v>3958</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>173</v>
-      </c>
       <c r="L29" s="7" t="s">
-        <v>174</v>
+        <v>57</v>
       </c>
       <c r="M29" s="7">
         <v>13</v>
@@ -3983,13 +4007,13 @@
         <v>8763</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4004,13 +4028,13 @@
         <v>226449</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H30" s="7">
         <v>330</v>
@@ -4019,13 +4043,13 @@
         <v>222521</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M30" s="7">
         <v>669</v>
@@ -4034,13 +4058,13 @@
         <v>448969</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,7 +4079,7 @@
         <v>9500</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>186</v>
@@ -4088,10 +4112,10 @@
         <v>191</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>109</v>
+        <v>192</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4106,13 +4130,13 @@
         <v>116382</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H32" s="7">
         <v>164</v>
@@ -4121,13 +4145,13 @@
         <v>110141</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M32" s="7">
         <v>342</v>
@@ -4136,13 +4160,13 @@
         <v>226522</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4198,7 +4222,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -4219,7 +4243,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D04CC36-175D-4827-93F4-7AC96663445C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61ED3306-9AEE-4762-B79B-297C352A5E07}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4236,7 +4260,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4349,7 +4373,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4358,13 +4382,13 @@
         <v>870</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4373,13 +4397,13 @@
         <v>870</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4394,13 +4418,13 @@
         <v>7794</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -4409,13 +4433,13 @@
         <v>8350</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M5" s="7">
         <v>19</v>
@@ -4424,13 +4448,13 @@
         <v>16145</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4451,7 +4475,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4466,7 +4490,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4481,7 +4505,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4496,13 +4520,13 @@
         <v>5246</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -4511,13 +4535,13 @@
         <v>3669</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -4526,13 +4550,13 @@
         <v>8915</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4600,13 +4624,13 @@
         <v>630</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -4615,13 +4639,13 @@
         <v>910</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -4630,13 +4654,13 @@
         <v>1541</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4654,10 +4678,10 @@
         <v>28</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H10" s="7">
         <v>37</v>
@@ -4666,13 +4690,13 @@
         <v>26590</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M10" s="7">
         <v>84</v>
@@ -4681,13 +4705,13 @@
         <v>60096</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>86</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4702,13 +4726,13 @@
         <v>2599</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>158</v>
+        <v>245</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -4717,13 +4741,13 @@
         <v>1384</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -4732,13 +4756,13 @@
         <v>3983</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4753,13 +4777,13 @@
         <v>25505</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H12" s="7">
         <v>47</v>
@@ -4768,13 +4792,13 @@
         <v>34373</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M12" s="7">
         <v>83</v>
@@ -4783,13 +4807,13 @@
         <v>59878</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4857,13 +4881,13 @@
         <v>3859</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -4875,10 +4899,10 @@
         <v>42</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>170</v>
+        <v>264</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -4887,13 +4911,13 @@
         <v>6352</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4908,13 +4932,13 @@
         <v>53474</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H15" s="7">
         <v>92</v>
@@ -4923,13 +4947,13 @@
         <v>60416</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M15" s="7">
         <v>171</v>
@@ -4938,13 +4962,13 @@
         <v>113889</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4959,13 +4983,13 @@
         <v>3381</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>172</v>
+        <v>72</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>275</v>
+        <v>141</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -4980,7 +5004,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -4989,13 +5013,13 @@
         <v>4646</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5010,13 +5034,13 @@
         <v>54512</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H17" s="7">
         <v>71</v>
@@ -5025,13 +5049,13 @@
         <v>47548</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="M17" s="7">
         <v>150</v>
@@ -5040,13 +5064,13 @@
         <v>102060</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5114,13 +5138,13 @@
         <v>1680</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5135,7 +5159,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -5144,13 +5168,13 @@
         <v>2336</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>186</v>
+        <v>296</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5165,13 +5189,13 @@
         <v>30958</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="H20" s="7">
         <v>49</v>
@@ -5180,13 +5204,13 @@
         <v>31005</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>131</v>
+        <v>303</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="M20" s="7">
         <v>100</v>
@@ -5195,13 +5219,13 @@
         <v>61963</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5216,13 +5240,13 @@
         <v>4131</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -5231,13 +5255,13 @@
         <v>1988</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>40</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="M21" s="7">
         <v>9</v>
@@ -5246,13 +5270,13 @@
         <v>6119</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5267,13 +5291,13 @@
         <v>42984</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>49</v>
+        <v>317</v>
       </c>
       <c r="H22" s="7">
         <v>62</v>
@@ -5282,13 +5306,13 @@
         <v>40686</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="M22" s="7">
         <v>125</v>
@@ -5297,13 +5321,13 @@
         <v>83670</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5359,7 +5383,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5371,13 +5395,13 @@
         <v>1128</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -5386,13 +5410,13 @@
         <v>798</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -5401,13 +5425,13 @@
         <v>1926</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>158</v>
+        <v>328</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5422,13 +5446,13 @@
         <v>46374</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="H25" s="7">
         <v>60</v>
@@ -5437,13 +5461,13 @@
         <v>47685</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="M25" s="7">
         <v>124</v>
@@ -5452,13 +5476,13 @@
         <v>94060</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5473,13 +5497,13 @@
         <v>5949</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -5488,13 +5512,13 @@
         <v>3001</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="M26" s="7">
         <v>12</v>
@@ -5503,13 +5527,13 @@
         <v>8949</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5524,13 +5548,13 @@
         <v>41278</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="H27" s="7">
         <v>54</v>
@@ -5539,13 +5563,13 @@
         <v>40823</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="M27" s="7">
         <v>110</v>
@@ -5554,13 +5578,13 @@
         <v>82101</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5628,13 +5652,13 @@
         <v>7297</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -5643,13 +5667,13 @@
         <v>5728</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>259</v>
+        <v>359</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>351</v>
+        <v>174</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>352</v>
+        <v>278</v>
       </c>
       <c r="M29" s="7">
         <v>19</v>
@@ -5658,13 +5682,13 @@
         <v>13025</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>354</v>
+        <v>250</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5679,13 +5703,13 @@
         <v>172107</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="H30" s="7">
         <v>248</v>
@@ -5694,13 +5718,13 @@
         <v>174046</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="M30" s="7">
         <v>498</v>
@@ -5709,13 +5733,13 @@
         <v>346153</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5730,13 +5754,13 @@
         <v>16060</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="H31" s="7">
         <v>11</v>
@@ -5745,13 +5769,13 @@
         <v>7637</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>247</v>
+        <v>375</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="M31" s="7">
         <v>34</v>
@@ -5760,13 +5784,13 @@
         <v>23697</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>372</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5781,13 +5805,13 @@
         <v>169525</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="H32" s="7">
         <v>238</v>
@@ -5796,13 +5820,13 @@
         <v>167100</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="M32" s="7">
         <v>477</v>
@@ -5811,13 +5835,13 @@
         <v>336625</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5873,7 +5897,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -5894,7 +5918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A2DF1D-4F3B-403B-BB7D-F25216A87079}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD725D9F-A1BC-4891-B2CB-58C07B1A30BB}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5911,7 +5935,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6039,7 +6063,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6054,7 +6078,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6069,13 +6093,13 @@
         <v>7593</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -6084,13 +6108,13 @@
         <v>8417</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="M5" s="7">
         <v>18</v>
@@ -6099,13 +6123,13 @@
         <v>16010</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6135,13 +6159,13 @@
         <v>1036</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -6150,13 +6174,13 @@
         <v>1036</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6171,13 +6195,13 @@
         <v>7884</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -6186,13 +6210,13 @@
         <v>5549</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -6201,13 +6225,13 @@
         <v>13433</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6275,13 +6299,13 @@
         <v>1543</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -6290,13 +6314,13 @@
         <v>605</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>409</v>
+        <v>262</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -6305,13 +6329,13 @@
         <v>2148</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6326,13 +6350,13 @@
         <v>30941</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="H10" s="7">
         <v>42</v>
@@ -6341,13 +6365,13 @@
         <v>28692</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="M10" s="7">
         <v>83</v>
@@ -6356,13 +6380,13 @@
         <v>59634</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6377,13 +6401,13 @@
         <v>725</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -6392,13 +6416,13 @@
         <v>1299</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -6407,13 +6431,13 @@
         <v>2024</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6428,13 +6452,13 @@
         <v>27136</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="H12" s="7">
         <v>33</v>
@@ -6443,13 +6467,13 @@
         <v>22626</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="M12" s="7">
         <v>68</v>
@@ -6458,13 +6482,13 @@
         <v>49762</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>102</v>
+        <v>440</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6532,13 +6556,13 @@
         <v>4450</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>186</v>
+        <v>443</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -6547,13 +6571,13 @@
         <v>3631</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>172</v>
+        <v>446</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="M14" s="7">
         <v>12</v>
@@ -6562,13 +6586,13 @@
         <v>8081</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>368</v>
+        <v>449</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6583,13 +6607,13 @@
         <v>56890</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="H15" s="7">
         <v>89</v>
@@ -6598,13 +6622,13 @@
         <v>58129</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="M15" s="7">
         <v>173</v>
@@ -6613,13 +6637,13 @@
         <v>115019</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6634,13 +6658,13 @@
         <v>1288</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -6649,13 +6673,13 @@
         <v>3570</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>72</v>
+        <v>262</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -6664,13 +6688,13 @@
         <v>4858</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>456</v>
+        <v>245</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>436</v>
+        <v>465</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6685,13 +6709,13 @@
         <v>43091</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="H17" s="7">
         <v>62</v>
@@ -6700,13 +6724,13 @@
         <v>40204</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="M17" s="7">
         <v>123</v>
@@ -6715,13 +6739,13 @@
         <v>83295</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>363</v>
+        <v>474</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6789,13 +6813,13 @@
         <v>653</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -6804,13 +6828,13 @@
         <v>1373</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>413</v>
+        <v>477</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -6822,10 +6846,10 @@
         <v>169</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6840,13 +6864,13 @@
         <v>46096</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="H20" s="7">
         <v>71</v>
@@ -6855,13 +6879,13 @@
         <v>45658</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="M20" s="7">
         <v>137</v>
@@ -6870,13 +6894,13 @@
         <v>91754</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6891,13 +6915,13 @@
         <v>2308</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>245</v>
+        <v>491</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -6906,13 +6930,13 @@
         <v>2552</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>107</v>
+        <v>281</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="M21" s="7">
         <v>8</v>
@@ -6921,13 +6945,13 @@
         <v>4860</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>175</v>
+        <v>494</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>410</v>
+        <v>495</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6942,13 +6966,13 @@
         <v>26137</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="H22" s="7">
         <v>41</v>
@@ -6957,13 +6981,13 @@
         <v>25434</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="M22" s="7">
         <v>79</v>
@@ -6972,13 +6996,13 @@
         <v>51572</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7034,7 +7058,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7046,13 +7070,13 @@
         <v>593</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>171</v>
+        <v>506</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -7061,13 +7085,13 @@
         <v>2098</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -7076,13 +7100,13 @@
         <v>2692</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7097,13 +7121,13 @@
         <v>64288</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>326</v>
+        <v>427</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="H25" s="7">
         <v>91</v>
@@ -7112,13 +7136,13 @@
         <v>69341</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="M25" s="7">
         <v>178</v>
@@ -7127,13 +7151,13 @@
         <v>133629</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7151,10 +7175,10 @@
         <v>188</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
@@ -7163,13 +7187,13 @@
         <v>7320</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>207</v>
+        <v>524</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>509</v>
+        <v>525</v>
       </c>
       <c r="M26" s="7">
         <v>14</v>
@@ -7178,13 +7202,13 @@
         <v>10060</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>510</v>
+        <v>526</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>511</v>
+        <v>340</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7199,13 +7223,13 @@
         <v>38989</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>515</v>
+        <v>474</v>
       </c>
       <c r="H27" s="7">
         <v>42</v>
@@ -7214,13 +7238,13 @@
         <v>31666</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="M27" s="7">
         <v>95</v>
@@ -7229,13 +7253,13 @@
         <v>70655</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>29</v>
+        <v>534</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7303,13 +7327,13 @@
         <v>7240</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>522</v>
+        <v>328</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -7318,13 +7342,13 @@
         <v>7707</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>92</v>
+        <v>428</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="M29" s="7">
         <v>22</v>
@@ -7333,13 +7357,13 @@
         <v>14947</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7354,13 +7378,13 @@
         <v>205808</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="H30" s="7">
         <v>302</v>
@@ -7369,13 +7393,13 @@
         <v>210238</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>447</v>
+        <v>546</v>
       </c>
       <c r="M30" s="7">
         <v>589</v>
@@ -7384,13 +7408,13 @@
         <v>416047</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7405,13 +7429,13 @@
         <v>7062</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>349</v>
+        <v>551</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>537</v>
+        <v>445</v>
       </c>
       <c r="H31" s="7">
         <v>23</v>
@@ -7420,13 +7444,13 @@
         <v>15776</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>39</v>
+        <v>553</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="M31" s="7">
         <v>34</v>
@@ -7435,13 +7459,13 @@
         <v>22838</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>42</v>
+        <v>555</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7456,13 +7480,13 @@
         <v>143236</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>544</v>
+        <v>351</v>
       </c>
       <c r="H32" s="7">
         <v>184</v>
@@ -7471,13 +7495,13 @@
         <v>125479</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="M32" s="7">
         <v>380</v>
@@ -7486,13 +7510,13 @@
         <v>268716</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7548,7 +7572,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -7569,7 +7593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62402DE4-4B8B-4E07-9F28-FCEB2E170E22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DFAE938-E91B-410B-A26E-8390A5625C16}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7586,7 +7610,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>551</v>
+        <v>565</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7699,7 +7723,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7714,7 +7738,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -7729,7 +7753,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>553</v>
+        <v>567</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7744,13 +7768,13 @@
         <v>4285</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>556</v>
+        <v>570</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -7759,13 +7783,13 @@
         <v>7839</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>557</v>
+        <v>571</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>558</v>
+        <v>572</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>559</v>
+        <v>573</v>
       </c>
       <c r="M5" s="7">
         <v>17</v>
@@ -7774,13 +7798,13 @@
         <v>12123</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>560</v>
+        <v>574</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>562</v>
+        <v>576</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7801,7 +7825,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -7810,13 +7834,13 @@
         <v>673</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>563</v>
+        <v>577</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>564</v>
+        <v>578</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -7825,13 +7849,13 @@
         <v>673</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>565</v>
+        <v>579</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>566</v>
+        <v>580</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7846,13 +7870,13 @@
         <v>2220</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>300</v>
+        <v>581</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>205</v>
+        <v>582</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>567</v>
+        <v>583</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -7861,13 +7885,13 @@
         <v>1006</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>568</v>
+        <v>584</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>569</v>
+        <v>585</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -7876,13 +7900,13 @@
         <v>3226</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>570</v>
+        <v>586</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>571</v>
+        <v>587</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>572</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7956,7 +7980,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>573</v>
+        <v>95</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -7971,7 +7995,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -7986,7 +8010,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>247</v>
+        <v>551</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8001,13 +8025,13 @@
         <v>58381</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>574</v>
+        <v>588</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>576</v>
+        <v>590</v>
       </c>
       <c r="H10" s="7">
         <v>70</v>
@@ -8016,13 +8040,13 @@
         <v>46905</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>577</v>
+        <v>25</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>579</v>
+        <v>592</v>
       </c>
       <c r="M10" s="7">
         <v>138</v>
@@ -8031,13 +8055,13 @@
         <v>105287</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>581</v>
+        <v>594</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>582</v>
+        <v>595</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8058,7 +8082,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>573</v>
+        <v>95</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -8067,13 +8091,13 @@
         <v>544</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>494</v>
+        <v>596</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -8082,13 +8106,13 @@
         <v>544</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>174</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8103,13 +8127,13 @@
         <v>13371</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>584</v>
+        <v>598</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="H12" s="7">
         <v>24</v>
@@ -8118,13 +8142,13 @@
         <v>15072</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>587</v>
+        <v>601</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>588</v>
+        <v>563</v>
       </c>
       <c r="M12" s="7">
         <v>40</v>
@@ -8133,13 +8157,13 @@
         <v>28443</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>591</v>
+        <v>411</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8213,7 +8237,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -8222,13 +8246,13 @@
         <v>2123</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>496</v>
+        <v>606</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>594</v>
+        <v>509</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -8237,13 +8261,13 @@
         <v>2123</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>111</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8258,13 +8282,13 @@
         <v>132522</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="H15" s="7">
         <v>131</v>
@@ -8273,13 +8297,13 @@
         <v>97157</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="M15" s="7">
         <v>300</v>
@@ -8288,13 +8312,13 @@
         <v>229679</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8315,7 +8339,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -8324,13 +8348,13 @@
         <v>612</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -8339,13 +8363,13 @@
         <v>1414</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8360,13 +8384,13 @@
         <v>33626</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>570</v>
+        <v>586</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -8375,13 +8399,13 @@
         <v>18608</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="M17" s="7">
         <v>69</v>
@@ -8390,13 +8414,13 @@
         <v>52234</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8470,7 +8494,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -8479,13 +8503,13 @@
         <v>159</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -8494,13 +8518,13 @@
         <v>159</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>467</v>
+        <v>635</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8515,13 +8539,13 @@
         <v>82469</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>623</v>
+        <v>636</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>624</v>
+        <v>637</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="H20" s="7">
         <v>103</v>
@@ -8530,13 +8554,13 @@
         <v>77632</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>628</v>
+        <v>641</v>
       </c>
       <c r="M20" s="7">
         <v>197</v>
@@ -8545,13 +8569,13 @@
         <v>160101</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>629</v>
+        <v>642</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>631</v>
+        <v>644</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8566,13 +8590,13 @@
         <v>4552</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>632</v>
+        <v>645</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>231</v>
+        <v>494</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>633</v>
+        <v>646</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -8581,13 +8605,13 @@
         <v>1229</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>634</v>
+        <v>375</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>192</v>
+        <v>647</v>
       </c>
       <c r="M21" s="7">
         <v>9</v>
@@ -8596,13 +8620,13 @@
         <v>5782</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>511</v>
+        <v>648</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>636</v>
+        <v>234</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8617,13 +8641,13 @@
         <v>24800</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="H22" s="7">
         <v>36</v>
@@ -8632,13 +8656,13 @@
         <v>27107</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="M22" s="7">
         <v>64</v>
@@ -8647,13 +8671,13 @@
         <v>51906</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>646</v>
+        <v>395</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8709,7 +8733,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8721,13 +8745,13 @@
         <v>900</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>647</v>
+        <v>158</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -8736,13 +8760,13 @@
         <v>159</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>649</v>
+        <v>124</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -8751,13 +8775,13 @@
         <v>1059</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>337</v>
+        <v>620</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8772,13 +8796,13 @@
         <v>88671</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="H25" s="7">
         <v>118</v>
@@ -8787,13 +8811,13 @@
         <v>90399</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>654</v>
+        <v>615</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="M25" s="7">
         <v>231</v>
@@ -8802,13 +8826,13 @@
         <v>179071</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8823,13 +8847,13 @@
         <v>821</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>479</v>
+        <v>156</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>234</v>
+        <v>667</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -8838,13 +8862,13 @@
         <v>1393</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>45</v>
+        <v>442</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -8853,13 +8877,13 @@
         <v>2214</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8874,13 +8898,13 @@
         <v>16843</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
       <c r="H27" s="7">
         <v>18</v>
@@ -8889,13 +8913,13 @@
         <v>12246</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>667</v>
+        <v>311</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="M27" s="7">
         <v>40</v>
@@ -8904,13 +8928,13 @@
         <v>29089</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8978,13 +9002,13 @@
         <v>900</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>247</v>
+        <v>680</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -8993,13 +9017,13 @@
         <v>2441</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -9008,13 +9032,13 @@
         <v>3341</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>676</v>
+        <v>604</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9029,13 +9053,13 @@
         <v>366328</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="H30" s="7">
         <v>434</v>
@@ -9044,13 +9068,13 @@
         <v>319933</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="M30" s="7">
         <v>883</v>
@@ -9059,13 +9083,13 @@
         <v>686261</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9080,13 +9104,13 @@
         <v>6175</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>170</v>
+        <v>694</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>687</v>
+        <v>57</v>
       </c>
       <c r="H31" s="7">
         <v>8</v>
@@ -9095,13 +9119,13 @@
         <v>4452</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>354</v>
+        <v>695</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="M31" s="7">
         <v>16</v>
@@ -9110,13 +9134,13 @@
         <v>10627</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>595</v>
+        <v>174</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>689</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9131,13 +9155,13 @@
         <v>90860</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="H32" s="7">
         <v>108</v>
@@ -9146,13 +9170,13 @@
         <v>74039</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="M32" s="7">
         <v>219</v>
@@ -9161,13 +9185,13 @@
         <v>164899</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>221</v>
+        <v>704</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9223,7 +9247,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
